--- a/biology/Médecine/Maladie_de_Kennedy/Maladie_de_Kennedy.xlsx
+++ b/biology/Médecine/Maladie_de_Kennedy/Maladie_de_Kennedy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La maladie de Kennedy (également connue sous les noms de amyotrophie bulbo-spinale liée à l'X, atrophie musculaire spinale et bulbaire et SMAX1) est une maladie neuromusculaire génétique du groupe des amyotrophies spinales en rapport avec une expansion du gène codant le récepteur aux androgènes. Elle affecte essentiellement les garçons.
 </t>
@@ -511,7 +523,9 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Une expansion du codon CAG répété (&gt; 38 CAG) du gène AR situé au niveau du locus q11-q12 du chromosome X.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les signes de la maladie n’apparaissent pas avant la puberté. L’adolescent présente une puberté tardive ou faible avec une gynécomastie et une hypotrophie testiculaire.
 Les faiblesses musculaires et l’atrophie musculaire apparaissent vers l’âge de 20 ans mais parfois pas avant 50 ans.
@@ -581,18 +597,18 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Clinique
-Adolescent présentant une atrophie testiculaire et/ ou une azoospermie avec une gynécomastie
+          <t>Clinique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Adolescent présentant une atrophie testiculaire et/ ou une azoospermie avec une gynécomastie
 Maladie du moto neurone avec faiblesse musculaire et ou des crampes des membres.
 Maladie du moto neurone bulbaire avec fasciculations de la langue et des lèvres.
 Déglutition difficile
 Absence de signes d’atteinte cérébrales (Pas d'hyperréflectivité)
-Histoire familiale de maladie liée à l'X
-Électromyographie
-Elle mettra en évidence une atteinte des neurones moteurs périphériques : une diminution des vitesses de conduction ou des amplitudes des potentiels d'action, un tracé de dennervation (aiguë) ou neurogène (chronique).
-Génétique
-L’expansion du triplet CAG répété (&gt; 38 CAG) du gène AR situé au niveau du locus q11-q12 du chromosome X fait le diagnostic. Le nombre normal d’expansion du triplet est égal ou inférieure à 34. Aucun consensus n’existe sur la signification d’une expansion du triplet entre 35 et 37
-</t>
+Histoire familiale de maladie liée à l'X</t>
         </is>
       </c>
     </row>
@@ -617,10 +633,86 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Électromyographie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle mettra en évidence une atteinte des neurones moteurs périphériques : une diminution des vitesses de conduction ou des amplitudes des potentiels d'action, un tracé de dennervation (aiguë) ou neurogène (chronique).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Maladie_de_Kennedy</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maladie_de_Kennedy</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Génétique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’expansion du triplet CAG répété (&gt; 38 CAG) du gène AR situé au niveau du locus q11-q12 du chromosome X fait le diagnostic. Le nombre normal d’expansion du triplet est égal ou inférieure à 34. Aucun consensus n’existe sur la signification d’une expansion du triplet entre 35 et 37
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Maladie_de_Kennedy</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maladie_de_Kennedy</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Diagnostic différentiel</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Principalement avec :
  Sclérose latérale amyotrophique 
@@ -633,68 +725,6 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Maladie_de_Kennedy</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Maladie_de_Kennedy</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Épidémiologie</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'incidence est de 1 sur 50 000 naissances de garçons. Cette pathologie touche les populations européennes et asiatiques. Elle semble peu toucher les populations noires. Les populations japonaises et scandinaves semblent être plus touchées par cette pathologie.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Maladie_de_Kennedy</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Maladie_de_Kennedy</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Traitements</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il n'existe actuellement aucun traitement curateur ou préventif. Son mode de transmission récessive est liée à l’X.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
@@ -716,10 +746,78 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Épidémiologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'incidence est de 1 sur 50 000 naissances de garçons. Cette pathologie touche les populations européennes et asiatiques. Elle semble peu toucher les populations noires. Les populations japonaises et scandinaves semblent être plus touchées par cette pathologie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Maladie_de_Kennedy</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maladie_de_Kennedy</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Traitements</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il n'existe actuellement aucun traitement curateur ou préventif. Son mode de transmission récessive est liée à l’X.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Maladie_de_Kennedy</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maladie_de_Kennedy</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">La maladie a été décrite pour la première fois en 1968 par William R. Kennedy. Son nom ne fait donc pas référence au président John Fitzgerald Kennedy.
 </t>
